--- a/pages/assets/not_in_israel_df.xlsx
+++ b/pages/assets/not_in_israel_df.xlsx
@@ -40,25 +40,25 @@
     <t>state_1</t>
   </si>
   <si>
-    <t>E0101</t>
-  </si>
-  <si>
-    <t>E0102</t>
-  </si>
-  <si>
-    <t>E0134</t>
-  </si>
-  <si>
-    <t>E0123</t>
-  </si>
-  <si>
-    <t>E0567</t>
-  </si>
-  <si>
-    <t>E1245</t>
-  </si>
-  <si>
-    <t>E4590</t>
+    <t>example__subject_0101</t>
+  </si>
+  <si>
+    <t>example__subject_0102</t>
+  </si>
+  <si>
+    <t>example__subject_0134</t>
+  </si>
+  <si>
+    <t>example__subject_0123</t>
+  </si>
+  <si>
+    <t>example__subject_0567</t>
+  </si>
+  <si>
+    <t>example__subject_1245</t>
+  </si>
+  <si>
+    <t>example__subject_4590</t>
   </si>
   <si>
     <t>לא</t>
